--- a/00_Open_Courses/04_Computer_Networking_Basics/Useful commands.xlsx
+++ b/00_Open_Courses/04_Computer_Networking_Basics/Useful commands.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A5D2C9-FEAC-4BC6-8E07-BF34E282780D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9210"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="103">
   <si>
     <t>Command</t>
   </si>
@@ -610,12 +609,18 @@
   </si>
   <si>
     <t>show ip ospf neighbors</t>
+  </si>
+  <si>
+    <t>int g0/0</t>
+  </si>
+  <si>
+    <t>Enter interface e.g. GigabitEathernet 0/0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -987,24 +992,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" customWidth="1"/>
-    <col min="2" max="2" width="60.21875" customWidth="1"/>
-    <col min="3" max="3" width="62.109375" customWidth="1"/>
-    <col min="4" max="4" width="37.5546875" customWidth="1"/>
-    <col min="5" max="5" width="76.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="60.28515625" customWidth="1"/>
+    <col min="3" max="3" width="62.140625" customWidth="1"/>
+    <col min="4" max="4" width="37.5703125" customWidth="1"/>
+    <col min="5" max="5" width="76.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -1021,7 +1026,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -1035,7 +1040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -1052,7 +1057,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1067,7 +1072,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -1082,7 +1087,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -1097,7 +1102,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -1112,7 +1117,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -1127,7 +1132,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -1144,7 +1149,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -1161,7 +1166,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -1178,7 +1183,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -1193,7 +1198,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -1208,7 +1213,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -1223,7 +1228,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -1238,7 +1243,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -1255,7 +1260,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>65</v>
       </c>
@@ -1270,7 +1275,7 @@
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>65</v>
       </c>
@@ -1285,7 +1290,7 @@
       </c>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>65</v>
       </c>
@@ -1300,7 +1305,7 @@
       </c>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>65</v>
       </c>
@@ -1317,7 +1322,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>65</v>
       </c>
@@ -1332,7 +1337,7 @@
       </c>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>47</v>
       </c>
@@ -1349,7 +1354,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>47</v>
       </c>
@@ -1366,7 +1371,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>47</v>
       </c>
@@ -1383,7 +1388,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>47</v>
       </c>
@@ -1398,7 +1403,7 @@
       </c>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>47</v>
       </c>
@@ -1413,7 +1418,7 @@
       </c>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>21</v>
       </c>
@@ -1430,7 +1435,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>21</v>
       </c>
@@ -1445,7 +1450,7 @@
       </c>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -1460,7 +1465,7 @@
       </c>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
@@ -1475,7 +1480,7 @@
       </c>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>27</v>
       </c>
@@ -1492,7 +1497,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>80</v>
       </c>
@@ -1509,7 +1514,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>80</v>
       </c>
@@ -1526,7 +1531,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>80</v>
       </c>
@@ -1541,7 +1546,7 @@
       </c>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>86</v>
       </c>
@@ -1558,7 +1563,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>86</v>
       </c>
@@ -1573,7 +1578,7 @@
       </c>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>86</v>
       </c>
@@ -1588,7 +1593,7 @@
       </c>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>86</v>
       </c>
@@ -1605,7 +1610,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>86</v>
       </c>
@@ -1620,7 +1625,7 @@
       </c>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>86</v>
       </c>
@@ -1635,8 +1640,16 @@
       </c>
       <c r="E40" s="2"/>
     </row>
+    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E40" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E40"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
